--- a/test_class.xlsx
+++ b/test_class.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="JSS1 Class" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="JSS2 Class" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="KJLKA Class" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="KJLKJA Class" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,77 +447,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Joy</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Ikem</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Okaka</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Chike</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Osazabuo</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Ikennea</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Izu</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Oddinake</t>
+          <t>Ja</t>
         </is>
       </c>
     </row>
@@ -532,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,6 +477,26 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jalk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Lkajkld</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_class.xlsx
+++ b/test_class.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="KJLKA Class" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="KJLKJA Class" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JSS1 Class" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="JSS2 Class" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JSS3 Class" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,7 +448,57 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ja</t>
+          <t>Jn</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dn</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bd</t>
         </is>
       </c>
     </row>
@@ -483,7 +534,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jalk</t>
+          <t>Bd</t>
         </is>
       </c>
     </row>
@@ -493,7 +544,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lkajkld</t>
+          <t>Dcde</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Names</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Jkajj</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kljak</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kjlka</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jlkjl</t>
         </is>
       </c>
     </row>
